--- a/biology/Zoologie/Glareolidae/Glareolidae.xlsx
+++ b/biology/Zoologie/Glareolidae/Glareolidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Glareolidae (ou glaréolidés en français) sont une famille d'oiseaux constituée de 4 genres et de 17 espèces existantes. Ces espèces sont nommées courvites et glaréoles.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oiseaux limicoles à l'aspect de pluvier ou de sterne (de 17 à 29 cm), aux ailes longues à très longues, et pattes longues ou relativement courtes.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitats et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils fréquentent l'Ancien Monde, surtout les régions tropicales, avec la plus grande diversité en Afrique. On les trouve des déserts à la savane, avec quelques espèces inféodées à l'eau. La plupart vivent à basse altitude, mais on peut parfois en voir jusqu'à 2 000 m et même plus haut.
 </t>
@@ -573,19 +589,90 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille est divisée en 2 sous-familles[réf. nécessaire] :
 les cursoriinés,
 les glaréolinés.
 Le genre Dromas Paykull, 1805, temporairement intégré dans cette famille dans la classification de Sibley est de nouveau considéré comme seul représentant de la famille des dromadidés.
-Liste alphabétique des genres
-Cursorius Latham, 1790
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Glareolidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glareolidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cursorius Latham, 1790
 Glareola Brisson, 1760
 Rhinoptilus Strickland, 1852
-Stiltia G. R. Gray, 1855
-Liste des espèces
-D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
+Stiltia G. R. Gray, 1855</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Glareolidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glareolidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Espèces par ordre phylogénique
 Cursorius cursor – Courvite isabelle
 Cursorius somalensis – Courvite de Somalie
@@ -608,34 +695,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Glareolidae</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Glareolidae</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Place au sein de l'ordre
-Phylogénie des familles de Charadriiformes du sous-ordre Lari, selon Tree of life[1] :
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Place au sein de l'ordre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des familles de Charadriiformes du sous-ordre Lari, selon Tree of life :
 </t>
         </is>
       </c>
